--- a/manual_tests.xlsx
+++ b/manual_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latix\Desktop\Egyetem\6. félév\integrácios és ellenőrzési technikák\hf\iet-hf-2024-ellenorok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7432F06-0D6F-46BA-B269-D8A52621F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9373FE-B729-4FDB-A123-12F77DA4EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
   <si>
     <t>Teszt leírása</t>
   </si>
@@ -388,18 +388,179 @@
   </si>
   <si>
     <t>Megváltozik a víz foyási iránya a csöveken. Azon a csövön, ahonnan pumpál a pumpa megjelenik egy fekete háromszög, mely a pumpa irányába néz. Azon, ahova meg pumpál, azon meg a pumpától elnéző fekete háromszög jelenik meg.</t>
+  </si>
+  <si>
+    <t>TP_16</t>
+  </si>
+  <si>
+    <t>TP_17</t>
+  </si>
+  <si>
+    <t>TP_18</t>
+  </si>
+  <si>
+    <t>TP_19</t>
+  </si>
+  <si>
+    <t>TP_20</t>
+  </si>
+  <si>
+    <t>TP_21</t>
+  </si>
+  <si>
+    <t>TP_22</t>
+  </si>
+  <si>
+    <t>TP_23</t>
+  </si>
+  <si>
+    <t>cső átmozgatásának ellenőrzése</t>
+  </si>
+  <si>
+    <t>bármey játékos egy csőt, a lecsatolandó pumpát és a hozzácsatolandó pumpát kiválasztva, a cső egyik végét át tudja kapcsolni a játékos egy másik node-hoz</t>
+  </si>
+  <si>
+    <t>a játékosnak kell, hogy legyen legalább egy akciója</t>
+  </si>
+  <si>
+    <t>rákantittunk egy tetszőleges csőre, majd arra a node-ra ahonnan le akarjuk kapcsolni a csövet, majd pedig arra, amire rá akarjuk kapcsolni, végül megnyomjuk a move pipe gombot</t>
+  </si>
+  <si>
+    <t>a kiválasztott cső egyik vége egy új mezőhöz lesz kapcsova a régi helyett</t>
+  </si>
+  <si>
+    <t>ha ugyanazt a mezőt választjuk ki a régi és az új végének is a csőnek, akkor nem lesz végrehajtva akció, nem történik változás</t>
+  </si>
+  <si>
+    <t>pumpa felvételének tesztelése</t>
+  </si>
+  <si>
+    <t>a szerelő játékos a ciszternán állva fel tud venni pumpát, amennyiben van elkészült pumpa a ciszternán</t>
+  </si>
+  <si>
+    <t>a szerelőt ráléptetjük a megfelelő ciszternára, ha még nem áll rajta, aztán megnyomjuk a Pickup gombot</t>
+  </si>
+  <si>
+    <t>a szerelőnek a ciszternán kell állnia és a ciszternának kell, hogy legyen pumpája, a szerelő nem szabad, hogy rendelkezzen pumpával</t>
+  </si>
+  <si>
+    <t>a ciszternának nem lesz pumpája, ez ellenőrizhető is, ha a kurzort a ciszterna fölé visszük. A szerelő pedig rendelkezni fog egy pumpával</t>
+  </si>
+  <si>
+    <t>ha a szerelőnek már van egy pumpája, akkor nem fog tudni újabbat felvenni, de nem fog akció végrehajtódni, ha megpróbálja</t>
+  </si>
+  <si>
+    <t>pumpa lehelyezése</t>
+  </si>
+  <si>
+    <t>a szerelő, amennyiben rendelkezik pumpával, a csövön állva le tudja helyezni a pumpáját, úgy hogy ezzel az adott csövet is kettévágja</t>
+  </si>
+  <si>
+    <t>a szerelőnek rendellkeznie kell egy pumpával, csövön kell állnia</t>
+  </si>
+  <si>
+    <t>a szerelőt ráléptetjük a megfelelő csőre, ha még nem áll rajta, aztán megnyomjuk a Place gombot</t>
+  </si>
+  <si>
+    <t>az adott cső megszűnik a ket node között, le lesz téve egy pumpa, majd a ket node egy-egy csővel az újonnan lehelyezett pumpához lesz kötve</t>
+  </si>
+  <si>
+    <t>kör befejezése</t>
+  </si>
+  <si>
+    <t>befejeződik a játékos köre és a sorban következő játékos köre kezdődik meg</t>
+  </si>
+  <si>
+    <t>meg kell nyomni az end turn gombot</t>
+  </si>
+  <si>
+    <t>az eddigi játékos köre befejeződik és a következő játékos köre kezdődik meg, nem számít, hogy maradt-e akciója az eddigi játékosnak vagy sem</t>
+  </si>
+  <si>
+    <t>játék befejezése</t>
+  </si>
+  <si>
+    <t>meg kell nyomni az end game gombot</t>
+  </si>
+  <si>
+    <t>befejeződik a játék, az a csapat nyer, amelyiknek több pontja van és ezt egy pop-up windowban jezi</t>
+  </si>
+  <si>
+    <t>befejeződik a játék, az a csapat nyer, amelyiknek több pontja van</t>
+  </si>
+  <si>
+    <t>befejeződik a játék, a pop-up window szerint döntetlen lesz a játék</t>
+  </si>
+  <si>
+    <t>mindenképp döntetent jelez a program, függetlenül attó, hogy a szerelők vagy a szabatőrök nyernek</t>
+  </si>
+  <si>
+    <t>szerelők nyernek</t>
+  </si>
+  <si>
+    <t>szabotőrök nyernek</t>
+  </si>
+  <si>
+    <t>várni a játék végére, amíg össze nem gyűlnek a szerelők pontjai</t>
+  </si>
+  <si>
+    <t>a szerelők a ciszternákba próbálják juttatni a lehető legtöbb vizet</t>
+  </si>
+  <si>
+    <t>várni a gomb megnyomására</t>
+  </si>
+  <si>
+    <t>véget ér a játék, a szerelők nyernek és egy pop-up windowban jelzi ezt a program</t>
+  </si>
+  <si>
+    <t>véget ér a játék, a szabotőrök nyernek és egy pop-up windowban jelzi ezt a program</t>
+  </si>
+  <si>
+    <t>várni a játék végére, amíg össze nem gyűlnek a szabotőrök pontjai</t>
+  </si>
+  <si>
+    <t>amennyiben a szabotőr csapat eléri a 100 pontot, véget ér a játék és nyernek a szabotőrök, amennyiben a szerelőknek kevesebb pontja van</t>
+  </si>
+  <si>
+    <t>amennyiben a szerelő csapat eléri a 100 pontot, véget ér a játék és nyernek a szerelők, amennyiben a szabotőröknek kevesebb pontja van</t>
+  </si>
+  <si>
+    <t>a szabotőrök a sivatagba próbálják kifolyatni a lehető legtöbb vizet</t>
+  </si>
+  <si>
+    <t>döntetlen lesz a játék</t>
+  </si>
+  <si>
+    <t>amennyiben mindkét csapat egyszerre éri el a 100 pontot, a játék döntetlen lesz</t>
+  </si>
+  <si>
+    <t>a szerelők a ciszternákba próbálják juttatni a lehető legtöbb vizet, míg a szabotőrök a sivatagba próbálnak kifolyatni a minél többet</t>
+  </si>
+  <si>
+    <t>várni a játék végére, amíg pont egyszerre gyűlnek össze a két csapatnak a pontjai</t>
+  </si>
+  <si>
+    <t>véget ér a játék, dönteten lesz és egy pop-up windowban jelzi ezt a program</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,32 +765,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,28 +817,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -945,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="F38" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,52 +1124,52 @@
     <col min="4" max="4" width="30.90625" customWidth="1"/>
     <col min="5" max="5" width="37.08984375" customWidth="1"/>
     <col min="6" max="6" width="35.6328125" customWidth="1"/>
-    <col min="7" max="7" width="31.90625" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" customWidth="1"/>
     <col min="8" max="8" width="51.26953125" customWidth="1"/>
     <col min="9" max="9" width="47.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1024,10 +1189,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1045,18 +1210,18 @@
       <c r="G4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="13">
         <v>45428</v>
       </c>
       <c r="C5" s="3">
@@ -1068,10 +1233,10 @@
       <c r="E5" s="3">
         <v>45428</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>45428</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>45428</v>
       </c>
       <c r="H5" s="3">
@@ -1082,10 +1247,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1111,10 +1276,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1140,10 +1305,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1169,10 +1334,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1187,21 +1352,21 @@
       <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1216,21 +1381,21 @@
       <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1256,92 +1421,92 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1361,10 +1526,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1382,18 +1547,18 @@
       <c r="G19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="13">
         <v>45429</v>
       </c>
       <c r="C20" s="3">
@@ -1405,10 +1570,10 @@
       <c r="E20" s="3">
         <v>45429</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>45429</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>45429</v>
       </c>
       <c r="H20" s="3">
@@ -1419,16 +1584,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="14" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1448,16 +1613,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="14" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1477,16 +1642,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1506,68 +1671,68 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="14" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="14" t="s">
         <v>87</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1593,58 +1758,398 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="16"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13">
+        <v>45433</v>
+      </c>
+      <c r="C35" s="13">
+        <v>45433</v>
+      </c>
+      <c r="D35" s="13">
+        <v>45433</v>
+      </c>
+      <c r="E35" s="13">
+        <v>45433</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45433</v>
+      </c>
+      <c r="G35" s="13">
+        <v>45433</v>
+      </c>
+      <c r="H35" s="13">
+        <v>45433</v>
+      </c>
+      <c r="I35" s="13">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B42:I42"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manual_tests.xlsx
+++ b/manual_tests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latix\Desktop\Egyetem\6. félév\integrácios és ellenőrzési technikák\hf\iet-hf-2024-ellenorok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9373FE-B729-4FDB-A123-12F77DA4EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F3438-F388-401E-A357-CD593F838558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original tests" sheetId="1" r:id="rId1"/>
+    <sheet name="failed tests fixed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="173">
   <si>
     <t>Teszt leírása</t>
   </si>
@@ -147,21 +148,12 @@
     <t>új játék indításásank ellenőrzése, miután egy korábbi játék véget ért</t>
   </si>
   <si>
-    <t>a játék úgy indul el a play gomb megnyomására, mintha ez lenne az első játék a program betöltése óta, mindkét csapat nulla ponton áll, a pálya is a kezdetleges módon van elrendezve</t>
-  </si>
-  <si>
-    <t>az üdvözlő felületen állunk, végigjátszottunk már egy játékot, ahol valamelyik csapat elérte a 100 pontot</t>
-  </si>
-  <si>
     <t>az üdvözlő felületen megnyomjuk a play gombot, miután végigjátszottunk egy menetet</t>
   </si>
   <si>
     <t>megjelenik a játék irányításáért felelős panel, a gombok és a pálya, valamint a játékosok ikonjaik, továbbá mindkét csapat pontszáma nulla</t>
   </si>
   <si>
-    <t>megjelenik a játék irányításáért felelős panel, a gombok és a pálya, valamint a játékosok ikonjaik az eredeti állapotukban, továbbá mindkét csapat pontszáma nulla</t>
-  </si>
-  <si>
     <t>A korábban megkezdett játék folytatódik annak elenére, hogy már egyszer véget ért, és megvan a győztes csapat is (vagy döntetlen). Egy kör után ismét véget fog érni a játék.</t>
   </si>
   <si>
@@ -492,9 +484,6 @@
     <t>befejeződik a játék, a pop-up window szerint döntetlen lesz a játék</t>
   </si>
   <si>
-    <t>mindenképp döntetent jelez a program, függetlenül attó, hogy a szerelők vagy a szabatőrök nyernek</t>
-  </si>
-  <si>
     <t>szerelők nyernek</t>
   </si>
   <si>
@@ -541,6 +530,21 @@
   </si>
   <si>
     <t>véget ér a játék, dönteten lesz és egy pop-up windowban jelzi ezt a program</t>
+  </si>
+  <si>
+    <t>bezáródik az alkamazásunk, és egy pop-up widnowban ezt előtte közli is veünk az alkalmazás</t>
+  </si>
+  <si>
+    <t>mindenképp döntetlent jelez a program, függetlenül attó, hogy a szerelők vagy a szabatőrök nyernek</t>
+  </si>
+  <si>
+    <t>a játék úgy indul el a play gomb megnyomására, hogy mindkét csapat nulla ponton áll, viszont a páya a korábban betöltött pálya</t>
+  </si>
+  <si>
+    <t>az üdvözlő felületen állunk, végigjátszottunk már egy játékot</t>
+  </si>
+  <si>
+    <t>megjelenik a játék irányításáért felelős panel, a gombok és a pálya, valamint a játékosok ikonjaik az előző állapotukban, viszont mindkét csapat pontszáma nulla</t>
   </si>
 </sst>
 </file>
@@ -607,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -761,11 +765,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -799,6 +864,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,14 +890,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1112,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F38" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="B1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1133,31 +1211,31 @@
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
@@ -1176,16 +1254,16 @@
         <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1205,16 +1283,16 @@
         <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1260,19 +1338,19 @@
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1289,19 +1367,19 @@
         <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1318,19 +1396,19 @@
         <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1341,25 +1419,25 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1376,19 +1454,19 @@
         <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1424,16 +1502,16 @@
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
@@ -1470,59 +1548,59 @@
       <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1530,28 +1608,28 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1588,57 +1666,57 @@
         <v>2</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1646,28 +1724,28 @@
         <v>4</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1675,28 +1753,28 @@
         <v>5</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1704,28 +1782,28 @@
         <v>6</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1761,16 +1839,16 @@
       <c r="A27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
@@ -1792,10 +1870,10 @@
         <v>27</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>27</v>
@@ -1807,88 +1885,88 @@
       <c r="A31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>129</v>
+      <c r="B34" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1924,145 +2002,145 @@
       <c r="A36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>130</v>
+      <c r="B36" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>142</v>
+        <v>133</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>131</v>
+      <c r="B37" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>144</v>
+      <c r="B38" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>133</v>
+      <c r="B39" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>171</v>
+      <c r="G39" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>133</v>
+      <c r="B40" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>171</v>
+        <v>151</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2081,7 +2159,7 @@
       <c r="E41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -2098,26 +2176,26 @@
       <c r="A42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>134</v>
+      <c r="B43" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>27</v>
@@ -2126,7 +2204,7 @@
         <v>27</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>27</v>
@@ -2153,4 +2231,201 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AF9253-C917-488C-A7E0-6A9EABEAC816}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45434</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D5" s="13">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>